--- a/20170915周报/技术支撑服务人员周报日报-20170915.xlsx
+++ b/20170915周报/技术支撑服务人员周报日报-20170915.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>项目名称</t>
   </si>
@@ -43,6 +43,9 @@
     <t>输出物</t>
   </si>
   <si>
+    <t>咪咕音乐后台</t>
+  </si>
+  <si>
     <t>刘韬</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>杜智恒</t>
   </si>
   <si>
-    <t>咪咕音乐后台</t>
-  </si>
-  <si>
     <t>凌河源</t>
   </si>
   <si>
@@ -74,43 +74,52 @@
   </si>
   <si>
     <t>罗健</t>
-  </si>
-  <si>
-    <t>张文韬</t>
-  </si>
-  <si>
-    <t>李春荣</t>
-  </si>
-  <si>
-    <t>曾昌林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>袁常鑫</t>
-  </si>
-  <si>
-    <t>何娟</t>
-  </si>
-  <si>
-    <t>陈平</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
   </si>
   <si>
     <t>1.演唱会互动我的排名和贡献值排行榜接口优化调测
 2.缓存前置管理功能后台开发调测</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>陈平</t>
+  </si>
+  <si>
+    <t>张文韬</t>
+  </si>
+  <si>
+    <t>1.类容组文档迁移,按照新规范将已有的文档完善
+2.前端_后台管理系统,Nginx操作页面添加Nginx详情
+3.完善28号项目SRS</t>
+  </si>
+  <si>
+    <t>李春荣</t>
+  </si>
+  <si>
+    <t>曾昌林</t>
+  </si>
+  <si>
+    <t>何娟</t>
+  </si>
+  <si>
+    <t>袁常鑫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +142,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -140,36 +155,161 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,12 +318,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -217,63 +543,352 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -564,374 +1179,381 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="34.5" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>20170911</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20170915</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" ht="51.75" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
         <v>20170911</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F11" s="6">
         <v>20170915</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" ht="17.25" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" ht="17.25" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170915周报/技术支撑服务人员周报日报-20170915.xlsx
+++ b/20170915周报/技术支撑服务人员周报日报-20170915.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>项目名称</t>
   </si>
@@ -70,6 +70,13 @@
     <t>陈毅昌</t>
   </si>
   <si>
+    <t>1.解决的问题：歌单推荐出现一天推荐好几次的问题
+2.了解并撰写SRS关于10月份上线的新版本</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>王琪</t>
   </si>
   <si>
@@ -78,9 +85,6 @@
   <si>
     <t>1.演唱会互动我的排名和贡献值排行榜接口优化调测
 2.缓存前置管理功能后台开发调测</t>
-  </si>
-  <si>
-    <t>代码</t>
   </si>
   <si>
     <t>陈平</t>
@@ -114,10 +118,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -168,14 +172,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,6 +193,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -196,55 +227,81 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,61 +312,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,13 +328,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,169 +490,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,6 +552,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -564,6 +577,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,6 +601,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,189 +639,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1188,7 +1186,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1320,7 +1318,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" ht="34.5" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1333,10 +1331,18 @@
       <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
+      <c r="E7" s="6">
+        <v>20170911</v>
+      </c>
+      <c r="F7" s="6">
+        <v>20170915</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" ht="17.25" spans="1:8">
       <c r="A8" s="7" t="s">
@@ -1346,7 +1352,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
@@ -1364,7 +1370,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
@@ -1376,10 +1382,10 @@
         <v>20170915</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:8">
@@ -1390,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1408,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1420,7 +1426,7 @@
         <v>20170915</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -1432,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
@@ -1450,7 +1456,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1468,7 +1474,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1486,7 +1492,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
@@ -1516,7 +1522,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170915周报/技术支撑服务人员周报日报-20170915.xlsx
+++ b/20170915周报/技术支撑服务人员周报日报-20170915.xlsx
@@ -10,12 +10,12 @@
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>项目名称</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>何娟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、调整页面展示上的几个显示框，更改bootstrap的显示效果。
+2、实现个人彩铃设置功能模块实现的任务，实现对个人铃音设置查询，对查询出的个人铃音设置添加按钮事件（删除、设为闲置），跳转请求，先把操作日志添加进建好的数据库表中，然后发送到审核端，返回结果更改表中的状态。设置定时器，筛选将审核通过的操作记录数据发送到集中平台。
+3、参与向运维展示功能的会议，并记录运维人员提出的需求更改、功能完善、页面调整。并整理会议纪要。
+</t>
   </si>
   <si>
     <t>袁常鑫</t>
@@ -164,6 +170,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -171,15 +234,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,118 +289,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -312,6 +296,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -328,181 +334,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +552,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,30 +587,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -601,6 +598,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,23 +640,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,10 +651,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,133 +663,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
@@ -1186,7 +1192,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1318,7 +1324,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" ht="34.5" spans="1:8">
+    <row r="7" ht="50" customHeight="1" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1466,7 +1472,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" ht="17.25" spans="1:8">
+    <row r="14" ht="207" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -1479,10 +1485,18 @@
       <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="6"/>
+      <c r="E14" s="6">
+        <v>20170912</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20170915</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" ht="17.25" spans="1:8">
       <c r="A15" s="7" t="s">
@@ -1492,7 +1506,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
@@ -1522,7 +1536,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170915周报/技术支撑服务人员周报日报-20170915.xlsx
+++ b/20170915周报/技术支撑服务人员周报日报-20170915.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\weekReport\20170915周报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\周报\weekReport\20170915周报\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t>项目名称</t>
   </si>
@@ -123,15 +123,24 @@
   <si>
     <t>1 定时任务数据同步用户铃音库 修改
 2批量开销户 上传用txt                                             3 SFTP 和 ftp 使用文件名去匹配路径进行下载，同时保存路径入库，新增配置可以离当前时间多少天开始下载</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>李春荣</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.咪咕星召唤活动测试上线
+2.大网流量销售接口开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -140,31 +149,33 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>28号</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>版本的SRS</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,10 +184,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -186,6 +217,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -205,19 +242,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -288,57 +314,57 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -684,23 +710,23 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F7" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -727,305 +753,329 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5">
+        <v>20170911</v>
+      </c>
+      <c r="F2" s="5">
+        <v>20170915</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5">
+        <v>20170911</v>
+      </c>
+      <c r="F3" s="5">
+        <v>20170915</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5">
+        <v>20170911</v>
+      </c>
+      <c r="F4" s="5">
+        <v>20170915</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5">
+        <v>20170911</v>
+      </c>
+      <c r="F5" s="5">
+        <v>20170915</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5">
+        <v>20170911</v>
+      </c>
+      <c r="F6" s="5">
+        <v>20170915</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5">
         <v>20170911</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>20170915</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5">
         <v>20170911</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>20170915</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>20170911</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>20170915</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5">
         <v>20170911</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>20170915</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="86.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5">
         <v>20170911</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>20170915</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="207" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5">
         <v>20170912</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>20170915</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="A15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1042,45 +1092,45 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/20170915周报/技术支撑服务人员周报日报-20170915.xlsx
+++ b/20170915周报/技术支撑服务人员周报日报-20170915.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\周报\weekReport\20170915周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>项目名称</t>
   </si>
@@ -63,7 +58,20 @@
     <t>杜智恒</t>
   </si>
   <si>
+    <t xml:space="preserve">1.缓存刷新功能 集群机器端的代码开发                                     2.项目一键部署脚本                                                   3.一件部署脚本使用文档                                    </t>
+  </si>
+  <si>
+    <t>代码，文档</t>
+  </si>
+  <si>
     <t>凌河源</t>
+  </si>
+  <si>
+    <t>1.咪咕星召唤活动测试上线
+2.大网流量销售接口开发</t>
+  </si>
+  <si>
+    <t>代码</t>
   </si>
   <si>
     <t>陆晨曦</t>
@@ -77,9 +85,6 @@
   <si>
     <t>1.解决的问题：歌单推荐出现一天推荐好几次的问题
 2.了解并撰写SRS关于10月份上线的新版本</t>
-  </si>
-  <si>
-    <t>代码</t>
   </si>
   <si>
     <t>王琪</t>
@@ -103,47 +108,16 @@
 3.完善28号项目SRS</t>
   </si>
   <si>
-    <t>曾昌林</t>
-  </si>
-  <si>
-    <t>何娟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、调整页面展示上的几个显示框，更改bootstrap的显示效果。
-2、实现个人彩铃设置功能模块实现的任务，实现对个人铃音设置查询，对查询出的个人铃音设置添加按钮事件（删除、设为闲置），跳转请求，先把操作日志添加进建好的数据库表中，然后发送到审核端，返回结果更改表中的状态。设置定时器，筛选将审核通过的操作记录数据发送到集中平台。
-3、参与向运维展示功能的会议，并记录运维人员提出的需求更改、功能完善、页面调整。并整理会议纪要。
-</t>
-  </si>
-  <si>
-    <t>袁常鑫</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>1 定时任务数据同步用户铃音库 修改
-2批量开销户 上传用txt                                             3 SFTP 和 ftp 使用文件名去匹配路径进行下载，同时保存路径入库，新增配置可以离当前时间多少天开始下载</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>李春荣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.咪咕星召唤活动测试上线
-2.大网流量销售接口开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.解决之前接口bug
 2.了解并撰写</t>
     </r>
@@ -152,9 +126,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>28号</t>
     </r>
@@ -162,20 +134,45 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>版本的SRS</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾昌林</t>
+  </si>
+  <si>
+    <t>1 定时任务数据同步用户铃音库 修改
+2批量开销户 上传用txt                                             3 SFTP 和 ftp 使用文件名去匹配路径进行下载，同时保存路径入库，新增配置可以离当前时间多少天开始下载</t>
+  </si>
+  <si>
+    <t>何娟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、调整页面展示上的几个显示框，更改bootstrap的显示效果。
+2、实现个人彩铃设置功能模块实现的任务，实现对个人铃音设置查询，对查询出的个人铃音设置添加按钮事件（删除、设为闲置），跳转请求，先把操作日志添加进建好的数据库表中，然后发送到审核端，返回结果更改表中的状态。设置定时器，筛选将审核通过的操作记录数据发送到集中平台。
+3、参与向运维展示功能的会议，并记录运维人员提出的需求更改、功能完善、页面调整。并整理会议纪要。
+</t>
+  </si>
+  <si>
+    <t>袁常鑫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,30 +181,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -217,12 +194,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -242,28 +213,175 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,12 +390,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -311,13 +615,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -329,58 +875,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -429,7 +1019,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -462,26 +1052,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -514,23 +1087,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -701,436 +1257,441 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F2:F7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>20170911</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>20170915</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="51.75" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>20170911</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>20170915</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="G3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="34.5" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>20170911</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>20170915</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>20170911</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>20170915</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>20170911</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>20170915</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="7" ht="50.1" customHeight="1" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>20170911</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>20170915</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+    <row r="9" ht="34.5" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>20170911</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>20170915</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" ht="51.75" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>20170911</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>20170915</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" ht="34.5" spans="1:8">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20170911</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20170915</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" ht="86.25" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20170911</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20170915</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" ht="207" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="5">
-        <v>20170911</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="E14" s="6">
+        <v>20170912</v>
+      </c>
+      <c r="F14" s="6">
         <v>20170915</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="86.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="G14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="1:8">
+      <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="5">
-        <v>20170911</v>
-      </c>
-      <c r="F13" s="5">
-        <v>20170915</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="207" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="5">
-        <v>20170912</v>
-      </c>
-      <c r="F14" s="5">
-        <v>20170915</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170915周报/技术支撑服务人员周报日报-20170915.xlsx
+++ b/20170915周报/技术支撑服务人员周报日报-20170915.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>项目名称</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>北京烽火</t>
+  </si>
+  <si>
+    <t>增加视频彩铃013001-013008 Mp4格式码</t>
+  </si>
+  <si>
+    <t>sql</t>
   </si>
   <si>
     <t>杜智恒</t>
@@ -134,6 +140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>版本的SRS</t>
@@ -168,11 +175,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,20 +220,134 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,148 +361,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,187 +390,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,17 +607,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,30 +658,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -699,6 +669,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,10 +707,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,143 +719,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -906,12 +894,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -984,7 +966,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1266,7 +1248,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1327,8 +1309,12 @@
       <c r="F2" s="6">
         <v>20170915</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" ht="51.75" spans="1:8">
       <c r="A3" s="6" t="s">
@@ -1338,7 +1324,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>11</v>
@@ -1350,10 +1336,10 @@
         <v>20170915</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="34.5" spans="1:8">
@@ -1364,7 +1350,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>11</v>
@@ -1376,10 +1362,10 @@
         <v>20170915</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:8">
@@ -1390,7 +1376,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
@@ -1412,7 +1398,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>11</v>
@@ -1434,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
@@ -1446,10 +1432,10 @@
         <v>20170915</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:8">
@@ -1460,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
@@ -1478,7 +1464,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
@@ -1490,10 +1476,10 @@
         <v>20170915</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:8">
@@ -1504,7 +1490,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1522,7 +1508,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1534,7 +1520,7 @@
         <v>20170915</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -1545,8 +1531,8 @@
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>28</v>
+      <c r="C12" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>11</v>
@@ -1557,11 +1543,11 @@
       <c r="F12" s="6">
         <v>20170915</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>29</v>
+      <c r="G12" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="86.25" spans="1:8">
@@ -1572,7 +1558,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1584,10 +1570,10 @@
         <v>20170915</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" ht="207" spans="1:8">
@@ -1598,7 +1584,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1610,10 +1596,10 @@
         <v>20170915</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:8">
@@ -1624,7 +1610,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
@@ -1654,7 +1640,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170915周报/技术支撑服务人员周报日报-20170915.xlsx
+++ b/20170915周报/技术支撑服务人员周报日报-20170915.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13046\Desktop\GG\weekReport\20170915周报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\weekReport\20170915周报\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -144,16 +144,23 @@
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
   <si>
+    <t>代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.歌单封面图片下载。</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1.解决之前接口bug
-2.了解并撰写</t>
+      <t xml:space="preserve">                                             </t>
     </r>
     <r>
       <rPr>
@@ -163,54 +170,22 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>28号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>版本的SRS</t>
-    </r>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.歌单封面图片下载。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                                             </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve"> 2.创建、修改歌单参数及返回码XML解析封装</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.解决之前开发接口bug
+2.了解28号项目需求
+3.编写28号项目SRS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +202,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -270,10 +266,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -285,17 +282,10 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -356,7 +346,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -364,43 +354,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -710,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -850,11 +843,11 @@
       <c r="F5" s="5">
         <v>20170915</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="10" t="s">
         <v>38</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
@@ -898,7 +891,7 @@
       <c r="F7" s="5">
         <v>20170915</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="12" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="8" t="s">
@@ -918,8 +911,8 @@
       <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
     </row>
@@ -930,7 +923,7 @@
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -942,7 +935,7 @@
       <c r="F9" s="5">
         <v>20170915</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -964,7 +957,7 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
@@ -986,12 +979,12 @@
       <c r="F11" s="5">
         <v>20170915</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="16" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -1010,8 +1003,8 @@
       <c r="F12" s="5">
         <v>20170915</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>37</v>
+      <c r="G12" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>19</v>
@@ -1036,7 +1029,7 @@
       <c r="F13" s="5">
         <v>20170915</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="16" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -1062,7 +1055,7 @@
       <c r="F14" s="5">
         <v>20170915</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -1082,13 +1075,13 @@
       <c r="D15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1143,7 +1136,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/20170915周报/技术支撑服务人员周报日报-20170915.xlsx
+++ b/20170915周报/技术支撑服务人员周报日报-20170915.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\weekReport\20170915周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
   <si>
     <t>项目名称</t>
   </si>
@@ -145,7 +140,7 @@
   </si>
   <si>
     <t>代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -172,49 +167,33 @@
       </rPr>
       <t xml:space="preserve"> 2.创建、修改歌单参数及返回码XML解析封装</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1.解决之前开发接口bug
 2.了解28号项目需求
 3.编写28号项目SRS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1咪咕汇接口bug修改
+2灰度系统-健康分析实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -223,6 +202,31 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -339,21 +343,15 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -394,6 +392,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -704,384 +708,388 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="14.88671875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="48.44140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="53.77734375" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3">
         <v>20170911</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>20170915</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3">
         <v>20170911</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>20170915</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3">
         <v>20170911</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>20170915</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    <row r="5" spans="1:8" ht="31.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3">
         <v>20170911</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>20170915</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3">
         <v>20170911</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>20170915</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3">
         <v>20170911</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>20170915</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
+    <row r="8" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3">
         <v>20170911</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>20170915</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
+    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3">
         <v>20170911</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>20170915</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3">
         <v>20170911</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>20170915</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="86.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5" t="s">
+    <row r="13" spans="1:8" ht="87" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3">
         <v>20170911</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>20170915</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="207" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
+    <row r="14" spans="1:8" ht="226.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3">
         <v>20170912</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>20170915</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
+    <row r="15" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1095,48 +1103,48 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/20170915周报/技术支撑服务人员周报日报-20170915.xlsx
+++ b/20170915周报/技术支撑服务人员周报日报-20170915.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comm\week\weekReport\20170915周报\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
   <si>
     <t>项目名称</t>
   </si>
@@ -140,6 +145,21 @@
   </si>
   <si>
     <t>代码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.解决之前开发接口bug
+2.了解28号项目需求
+3.编写28号项目SRS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1咪咕汇接口bug修改
+2灰度系统-健康分析实现</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -170,25 +190,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1.解决之前开发接口bug
-2.了解28号项目需求
-3.编写28号项目SRS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1咪咕汇接口bug修改
-2灰度系统-健康分析实现</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>1.熟悉新需求
+2.梳理数据来源
+3.SRS编写</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -350,8 +360,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -393,10 +409,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,7 +474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,9 +507,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,6 +559,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -707,386 +754,394 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="53.77734375" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="14.875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="9" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="9" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5">
         <v>20170911</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <v>20170915</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5">
         <v>20170911</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>20170915</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5">
         <v>20170911</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>20170915</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    <row r="5" spans="1:8" ht="30.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5">
         <v>20170911</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>20170915</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5">
+        <v>20170911</v>
+      </c>
+      <c r="F6" s="5">
+        <v>20170915</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5">
+        <v>20170911</v>
+      </c>
+      <c r="F7" s="5">
+        <v>20170915</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5">
+        <v>20170911</v>
+      </c>
+      <c r="F9" s="5">
+        <v>20170915</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5">
+        <v>20170911</v>
+      </c>
+      <c r="F10" s="5">
+        <v>20170915</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
+        <v>20170911</v>
+      </c>
+      <c r="F11" s="5">
+        <v>20170915</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5">
+        <v>20170911</v>
+      </c>
+      <c r="F12" s="5">
+        <v>20170915</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="H12" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="86.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5">
         <v>20170911</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F13" s="5">
         <v>20170915</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3">
-        <v>20170911</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="G13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="207" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5">
+        <v>20170912</v>
+      </c>
+      <c r="F14" s="5">
         <v>20170915</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="G14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3">
-        <v>20170911</v>
-      </c>
-      <c r="F9" s="3">
-        <v>20170915</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20170911</v>
-      </c>
-      <c r="F11" s="3">
-        <v>20170915</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20170911</v>
-      </c>
-      <c r="F12" s="3">
-        <v>20170915</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="87" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3">
-        <v>20170911</v>
-      </c>
-      <c r="F13" s="3">
-        <v>20170915</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="226.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="3">
-        <v>20170912</v>
-      </c>
-      <c r="F14" s="3">
-        <v>20170915</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3" t="s">
+    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1103,42 +1158,42 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
